--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,22 @@
   </si>
   <si>
     <t>作用：在展厅中赠送给车模可以获得金币和魅力值的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,6 +460,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,82 @@
   </si>
   <si>
     <t>git push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高车的强化成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换物品：获得方式，比赛中碰撞到彩球随机获得彩蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,7 +503,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,37 +523,120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>兑换物品：获得方式，比赛中碰撞到彩球随机获得彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +496,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,6 +621,9 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -146,7 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如：</t>
+    <t>如：灰+绿+蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -146,7 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如：灰+绿+蓝</t>
+    <t>如：灰+绿+蓝+魅力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -146,7 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如：灰+绿+蓝+魅力</t>
+    <t>如：灰1+绿2+蓝4+魅力5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>如：灰1+绿2+蓝4+魅力5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰+绿+红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,22 +630,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>30</v>
       </c>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,6 +640,9 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>灰+绿+红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红+绿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +647,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -154,7 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红+绿</t>
+    <t>红+绿 +紫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>灰+绿+红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红+绿 +紫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,9 +642,6 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">

--- a/物品表.xlsx
+++ b/物品表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>灰+绿+红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红+绿+紫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,6 +646,9 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
